--- a/data_STK_astrogator/Processed_data/Lumelite2_final_summary.xlsx
+++ b/data_STK_astrogator/Processed_data/Lumelite2_final_summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\FORMFLYT\data_STK_astrogator\Processed_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngengton\Documents\GitHub\FORMFLYT\data_STK_astrogator\Processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0EBFC1-647F-4DDE-A7C6-8F15B3533ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072CD848-73D0-496B-A2E4-4E6DE1FE66ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="1460" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -465,13 +465,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="O25" sqref="O1:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -543,7 +543,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -578,7 +578,7 @@
         <v>-0.69539600000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -598,7 +598,7 @@
         <v>1209600</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -633,7 +633,7 @@
         <v>9.8040000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -653,7 +653,7 @@
         <v>28676</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -673,7 +673,7 @@
         <v>2101.4009999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -699,16 +699,16 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="I9">
-        <v>-1.2143063999999999</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-1.3877699999999999</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -728,7 +728,7 @@
         <v>28676</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -748,7 +748,7 @@
         <v>5568.51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -774,7 +774,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="I12">
-        <v>-2.2551405</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -803,7 +803,7 @@
         <v>28676</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -823,7 +823,7 @@
         <v>5479.3980000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -849,16 +849,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I15">
-        <v>-3.469446</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.3876999999999999</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -878,7 +878,7 @@
         <v>28676</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -898,7 +898,7 @@
         <v>5491.973</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -924,7 +924,7 @@
         <v>0.04</v>
       </c>
       <c r="I18">
-        <v>-1.64798</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -953,7 +953,7 @@
         <v>28676</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -973,7 +973,7 @@
         <v>5575.2820000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -999,16 +999,16 @@
         <v>0.06</v>
       </c>
       <c r="I21">
-        <v>3.469449</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>-0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>28676</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>5518.366</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0.05</v>
       </c>
       <c r="I24">
-        <v>1.73472</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>28676</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>5547.7169999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1149,16 +1149,16 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="I27">
-        <v>3.4694468999999999</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>2.7755000000000001</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>28676</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>5528.81</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1224,16 +1224,16 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I30">
-        <v>1.73472</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>-2.7755000000000001</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>

--- a/data_STK_astrogator/Processed_data/Lumelite2_final_summary.xlsx
+++ b/data_STK_astrogator/Processed_data/Lumelite2_final_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngengton\Documents\GitHub\FORMFLYT\data_STK_astrogator\Processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072CD848-73D0-496B-A2E4-4E6DE1FE66ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FB0B04-10D8-44CB-B6EB-6F7107CA3225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1460" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="O25" sqref="O1:Q25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
